--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ackr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J2">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>0.19849261952</v>
+        <v>0.09804173110400001</v>
       </c>
       <c r="R2">
-        <v>1.78643357568</v>
+        <v>0.882375579936</v>
       </c>
       <c r="S2">
-        <v>0.01135106691647429</v>
+        <v>0.003072746454244673</v>
       </c>
       <c r="T2">
-        <v>0.01135106691647429</v>
+        <v>0.003072746454244672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J3">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
         <v>0.6172282747760001</v>
@@ -635,10 +635,10 @@
         <v>5.555054472984001</v>
       </c>
       <c r="S3">
-        <v>0.03529702749988855</v>
+        <v>0.01934468079481036</v>
       </c>
       <c r="T3">
-        <v>0.03529702749988855</v>
+        <v>0.01934468079481036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>2.571444</v>
       </c>
       <c r="I4">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J4">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,90 +679,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.021419842804</v>
+        <v>0.028781886976</v>
       </c>
       <c r="R4">
-        <v>0.192778585236</v>
+        <v>0.259036982784</v>
       </c>
       <c r="S4">
-        <v>0.001224922466117516</v>
+        <v>0.0009020591553831374</v>
       </c>
       <c r="T4">
-        <v>0.001224922466117516</v>
+        <v>0.0009020591553831374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.857148</v>
+      </c>
+      <c r="H5">
+        <v>2.571444</v>
+      </c>
+      <c r="I5">
+        <v>0.02394963654761903</v>
+      </c>
+      <c r="J5">
+        <v>0.02394963654761903</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>1.104681666666667</v>
-      </c>
-      <c r="H5">
-        <v>3.314045</v>
-      </c>
-      <c r="I5">
-        <v>0.06169814790222909</v>
-      </c>
-      <c r="J5">
-        <v>0.06169814790222908</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>0.2558148158222222</v>
+        <v>0.020106120636</v>
       </c>
       <c r="R5">
-        <v>2.3023333424</v>
+        <v>0.180955085724</v>
       </c>
       <c r="S5">
-        <v>0.01462911366500963</v>
+        <v>0.0006301501431808566</v>
       </c>
       <c r="T5">
-        <v>0.01462911366500963</v>
+        <v>0.0006301501431808565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>34.93245566666667</v>
+      </c>
+      <c r="H6">
+        <v>104.797367</v>
+      </c>
+      <c r="I6">
+        <v>0.9760503634523809</v>
+      </c>
+      <c r="J6">
+        <v>0.9760503634523809</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>1.104681666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.314045</v>
-      </c>
-      <c r="I6">
-        <v>0.06169814790222909</v>
-      </c>
-      <c r="J6">
-        <v>0.06169814790222908</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>0.7954761129855555</v>
+        <v>3.995620855760889</v>
       </c>
       <c r="R6">
-        <v>7.15928501687</v>
+        <v>35.96058770184801</v>
       </c>
       <c r="S6">
-        <v>0.0454903694192322</v>
+        <v>0.1252275911368973</v>
       </c>
       <c r="T6">
-        <v>0.0454903694192322</v>
+        <v>0.1252275911368972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,72 +832,72 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H7">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I7">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J7">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02498966666666667</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N7">
-        <v>0.07496900000000001</v>
+        <v>2.160286</v>
       </c>
       <c r="O7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q7">
-        <v>0.02760562662277778</v>
+        <v>25.15469830744023</v>
       </c>
       <c r="R7">
-        <v>0.248450639605</v>
+        <v>226.392284766962</v>
       </c>
       <c r="S7">
-        <v>0.001578664817987257</v>
+        <v>0.7883786746869048</v>
       </c>
       <c r="T7">
-        <v>0.001578664817987257</v>
+        <v>0.7883786746869048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,60 +909,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.94278666666666</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H8">
-        <v>47.82836</v>
+        <v>104.797367</v>
       </c>
       <c r="I8">
-        <v>0.8904288352152907</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J8">
-        <v>0.8904288352152906</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2315733333333333</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N8">
-        <v>0.69472</v>
+        <v>0.100736</v>
       </c>
       <c r="O8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q8">
-        <v>3.691924251022222</v>
+        <v>1.172985284679111</v>
       </c>
       <c r="R8">
-        <v>33.2273182592</v>
+        <v>10.556867562112</v>
       </c>
       <c r="S8">
-        <v>0.2111276445706078</v>
+        <v>0.03676277778648755</v>
       </c>
       <c r="T8">
-        <v>0.2111276445706078</v>
+        <v>0.03676277778648755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,108 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.94278666666666</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H9">
-        <v>47.82836</v>
+        <v>104.797367</v>
       </c>
       <c r="I9">
-        <v>0.8904288352152907</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J9">
-        <v>0.8904288352152906</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7200953333333334</v>
+        <v>0.023457</v>
       </c>
       <c r="N9">
-        <v>2.160286</v>
+        <v>0.070371</v>
       </c>
       <c r="O9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q9">
-        <v>11.48032627899556</v>
+        <v>0.8194106125730002</v>
       </c>
       <c r="R9">
-        <v>103.32293651096</v>
+        <v>7.374695513157001</v>
       </c>
       <c r="S9">
-        <v>0.656517870190667</v>
+        <v>0.02568131984209136</v>
       </c>
       <c r="T9">
-        <v>0.6565178701906669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H10">
-        <v>47.82836</v>
-      </c>
-      <c r="I10">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J10">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02498966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.07496900000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="P10">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="Q10">
-        <v>0.3984049245377778</v>
-      </c>
-      <c r="R10">
-        <v>3.58564432084</v>
-      </c>
-      <c r="S10">
-        <v>0.02278332045401586</v>
-      </c>
-      <c r="T10">
-        <v>0.02278332045401586</v>
+        <v>0.02568131984209136</v>
       </c>
     </row>
   </sheetData>
